--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_3_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_3_sawtooth_01_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1275341203915998</v>
+        <v>0.3064541150169984</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1275341203915998</v>
+        <v>0.3064541150169984</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.123484153432161</v>
+        <v>4.794854564667076</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.4099210056593172, 15.656889312523639]</t>
+          <t>[-3.5183936022065057, 13.108102731540658]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.09962846473064357</v>
+        <v>0.2514902790445142</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09962846473064357</v>
+        <v>0.2514902790445142</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.459158149415079</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.107000542289004, 0.18868424345884627]</t>
+          <t>[-3.4780795544247356, 2.7736583788450426]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.08125314744971401</v>
+        <v>0.8214972736118136</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08125314744971401</v>
+        <v>0.8214972736118136</v>
       </c>
       <c r="T2" t="n">
-        <v>11.51191739845713</v>
+        <v>11.66594461504863</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.420583182138461, 16.603251614775804]</t>
+          <t>[7.317204321260746, 16.014684908836507]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.994246617655683e-05</v>
+        <v>2.378648665812833e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.994246617655683e-05</v>
+        <v>2.378648665812833e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.03571571571586</v>
+        <v>1.456896896896932</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.7804804804804988</v>
+        <v>-11.47306306306334</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.85191191191222</v>
+        <v>14.3868568568572</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7094453119208899</v>
+        <v>0.2739869732706874</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7094453119208899</v>
+        <v>0.2739869732706874</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2.835133650016699</v>
+        <v>4.561121824203502</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.920897317013203, 11.591164617046601]</t>
+          <t>[-3.4346357812810595, 12.556879429688063]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.5176213710121353</v>
+        <v>0.256654998318695</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5176213710121353</v>
+        <v>0.256654998318695</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1635263443310002</v>
+        <v>-0.8050527720910781</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.283105836183928, 2.9560531475219274]</t>
+          <t>[-3.94350068828989, 2.333395144107734]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.9163864090394254</v>
+        <v>0.6079347573312086</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9163864090394254</v>
+        <v>0.6079347573312086</v>
       </c>
       <c r="T3" t="n">
-        <v>15.77031165397859</v>
+        <v>11.72891420521284</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[11.026621856023748, 20.51400145193344]</t>
+          <t>[7.6308027726797265, 15.827025637745958]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.882790450797756e-08</v>
+        <v>6.976820634552183e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.882790450797756e-08</v>
+        <v>6.976820634552183e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6764164164164335</v>
+        <v>3.330050050050129</v>
       </c>
       <c r="Y3" t="n">
-        <v>-12.22752752752782</v>
+        <v>-9.651941941942173</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.58036036036069</v>
+        <v>16.31204204204243</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02429588805808314</v>
+        <v>0.02914682919290212</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02429588805808314</v>
+        <v>0.02914682919290212</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>8.870828554429682</v>
+        <v>9.985011143156427</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.247139763438451, 16.494517345420913]</t>
+          <t>[0.4318360758569497, 19.538186210455905]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02357671892326563</v>
+        <v>0.04089300938520535</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02357671892326563</v>
+        <v>0.04089300938520535</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.446579199851156</v>
+        <v>-2.012631930227695</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.654158357987773, -0.2390000417145388]</t>
+          <t>[-3.3208426848756964, -0.704421175579693]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01997038509303439</v>
+        <v>0.003346328941514098</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01997038509303439</v>
+        <v>0.003346328941514098</v>
       </c>
       <c r="T4" t="n">
-        <v>12.64108411087997</v>
+        <v>14.90159061763793</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.003213158539692, 17.278955063220252]</t>
+          <t>[9.73175853562951, 20.07142269964636]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.774335739668231e-06</v>
+        <v>6.065859068371537e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.774335739668231e-06</v>
+        <v>6.065859068371537e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>5.983683683683829</v>
+        <v>8.325125125125322</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9886086086086339</v>
+        <v>2.913793793793861</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.97875875875902</v>
+        <v>13.73645645645678</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1476224838916979</v>
+        <v>0.4421755868177183</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1476224838916979</v>
+        <v>0.4421755868177183</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.543922596257189</v>
+        <v>5.026454883750497</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.289432505192921, 15.3772776977073]</t>
+          <t>[-4.482605682794055, 14.535515450295048]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1426542520572369</v>
+        <v>0.2927148762421075</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1426542520572369</v>
+        <v>0.2927148762421075</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.213895123250465</v>
+        <v>-3.018947895341543</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.295737766411623, 0.8679475199106932]</t>
+          <t>[-6.151106336758394, 0.113210546075309]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1548648836232285</v>
+        <v>0.05849927387699227</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1548648836232285</v>
+        <v>0.05849927387699227</v>
       </c>
       <c r="T5" t="n">
-        <v>13.08403779700233</v>
+        <v>16.46864060885407</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.468329950582891, 17.699745643421764]</t>
+          <t>[11.132866431031271, 21.80441478667687]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.41646253579853e-07</v>
+        <v>1.488972116714393e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>8.41646253579853e-07</v>
+        <v>1.488972116714393e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>9.157637637637858</v>
+        <v>12.48768768768799</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.590210210210294</v>
+        <v>-0.4682882882883028</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.90548548548601</v>
+        <v>25.44366366366427</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.516066340630655</v>
+        <v>0.01330535525417875</v>
       </c>
       <c r="I6" t="n">
-        <v>0.516066340630655</v>
+        <v>0.01330535525417875</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.860277690069121</v>
+        <v>11.21573166963026</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-6.527240797143329, 16.24779617728157]</t>
+          <t>[2.786553110680213, 19.6449102285803]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3945471984885582</v>
+        <v>0.01025121893898451</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3945471984885582</v>
+        <v>0.01025121893898451</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.352263568453619</v>
+        <v>3.113290017070967</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-5.490711484652432, 0.786184347745194]</t>
+          <t>[2.1069740519571187, 4.119605982184814]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1381437307197317</v>
+        <v>1.415944284044457e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1381437307197317</v>
+        <v>1.415944284044457e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>16.31482278069106</v>
+        <v>14.58529900922494</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.468123333107954, 22.161522228274173]</t>
+          <t>[9.572299107475468, 19.598298910974407]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.13953721547766e-06</v>
+        <v>5.03613034608108e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13953721547766e-06</v>
+        <v>5.03613034608108e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>9.729989989990223</v>
+        <v>13.11207207207238</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.252002002002083</v>
+        <v>8.949509509509721</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.71198198198253</v>
+        <v>17.27463463463505</v>
       </c>
     </row>
     <row r="7">
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2562083616877894</v>
+        <v>0.5477543247287908</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2562083616877894</v>
+        <v>0.5477543247287908</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.661127645425784</v>
+        <v>4.329255128358434</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-2.2787940712288215, 13.601049362080389]</t>
+          <t>[-6.296864444416708, 14.955374701133575]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1579047913981932</v>
+        <v>0.4162120663314171</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1579047913981932</v>
+        <v>0.4162120663314171</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.094421592725082</v>
+        <v>2.647868883205812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.912106295043855, -0.27673689040630833]</t>
+          <t>[-0.4842895582110387, 5.7800273246226626]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.03209215291303891</v>
+        <v>0.09552586427299792</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03209215291303891</v>
+        <v>0.09552586427299792</v>
       </c>
       <c r="T7" t="n">
-        <v>15.29959503318603</v>
+        <v>16.46029286492948</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.66027938693577, 19.938910679436297]</t>
+          <t>[10.858549023020998, 22.062036706837965]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.464796805019432e-08</v>
+        <v>4.127864443592699e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.464796805019432e-08</v>
+        <v>4.127864443592699e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>12.79987987988019</v>
+        <v>15.03725725725762</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.144704704704733</v>
+        <v>2.081281281281329</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.45505505505564</v>
+        <v>27.9932332332339</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3216316394620662</v>
+        <v>0.4892309729125598</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3216316394620662</v>
+        <v>0.4892309729125598</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.874887219421404</v>
+        <v>4.145831155309981</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-3.9015695547479607, 13.651343993590768]</t>
+          <t>[-5.478171930864882, 13.769834241484844]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2691898320273789</v>
+        <v>0.3901969981087108</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2691898320273789</v>
+        <v>0.3901969981087108</v>
       </c>
       <c r="P8" t="n">
-        <v>2.635289933641888</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5031579825569237, 5.773737849840701]</t>
+          <t>[-1.3333686537758478, 4.91836927949393]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.09771400892640614</v>
+        <v>0.2541995405117288</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09771400892640614</v>
+        <v>0.2541995405117288</v>
       </c>
       <c r="T8" t="n">
-        <v>13.78645415181679</v>
+        <v>13.17474453329475</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.215717285892831, 18.357191017740746]</t>
+          <t>[8.050588019023696, 18.29890104756581]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.415873294747684e-07</v>
+        <v>5.066353445881688e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>2.415873294747684e-07</v>
+        <v>5.066353445881688e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>15.08928928928965</v>
+        <v>18.57543543543588</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.10729729729735</v>
+        <v>5.645475475475612</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.07128128128195</v>
+        <v>31.50539539539615</v>
       </c>
     </row>
     <row r="9">
@@ -1189,63 +1189,63 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08738079168056379</v>
+        <v>0.7391345481616722</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08738079168056379</v>
+        <v>0.7391345481616722</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.305132734895228</v>
+        <v>2.877431347799724</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.3367848978365693, 15.947050367627025]</t>
+          <t>[-7.583548802707168, 13.338411498306616]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.09555159144586733</v>
+        <v>0.5823175798635276</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09555159144586733</v>
+        <v>0.5823175798635276</v>
       </c>
       <c r="P9" t="n">
-        <v>1.779921363295118</v>
+        <v>2.270500396288119</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.1320789704211922, 3.4277637561690444]</t>
+          <t>[-0.8616580451287321, 5.40265883770497]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.03488189265527031</v>
+        <v>0.1512304904986119</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03488189265527031</v>
+        <v>0.1512304904986119</v>
       </c>
       <c r="T9" t="n">
-        <v>14.48912184481784</v>
+        <v>15.30349701074203</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.69318369059054, 19.285059999045142]</t>
+          <t>[9.876994647525525, 20.72999937395853]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.335994546687203e-07</v>
+        <v>9.298065724028248e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.335994546687203e-07</v>
+        <v>9.298065724028248e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>18.62746746746791</v>
+        <v>16.59821821821862</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.81127127127155</v>
+        <v>3.642242242242327</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.44366366366427</v>
+        <v>29.55419419419491</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.299868903588993</v>
+        <v>0.1328851661852331</v>
       </c>
       <c r="I10" t="n">
-        <v>0.299868903588993</v>
+        <v>0.1328851661852331</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.379467793711085</v>
+        <v>6.13647690040034</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.016252639278961, 14.775188226701133]</t>
+          <t>[-1.7224861380455465, 13.995439938846227]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2549317791045986</v>
+        <v>0.1228023636215121</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2549317791045986</v>
+        <v>0.1228023636215121</v>
       </c>
       <c r="P10" t="n">
-        <v>2.245342497160272</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, 5.383790413359084]</t>
+          <t>[0.006289474781961069, 3.5283953526804295]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1565208569508512</v>
+        <v>0.04922134428305269</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1565208569508512</v>
+        <v>0.04922134428305269</v>
       </c>
       <c r="T10" t="n">
-        <v>15.0402818710507</v>
+        <v>14.41440503242287</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.158775146350397, 19.921788595751]</t>
+          <t>[10.159426159439386, 18.669383905406363]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.545289949334006e-07</v>
+        <v>1.865228882458325e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.545289949334006e-07</v>
+        <v>1.865228882458325e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>15.65477477477501</v>
+        <v>17.29955955955979</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.486966966967021</v>
+        <v>10.55321321321335</v>
       </c>
       <c r="Z10" t="n">
-        <v>27.82258258258301</v>
+        <v>24.04590590590623</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.463951214854979</v>
+        <v>0.1986529681953104</v>
       </c>
       <c r="I11" t="n">
-        <v>0.463951214854979</v>
+        <v>0.1986529681953104</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.411030706223273</v>
+        <v>7.429759131598314</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.52925837241555, 13.351319784862095]</t>
+          <t>[-3.4523063811305468, 18.311824644327174]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.325665900165572</v>
+        <v>0.1758977890582818</v>
       </c>
       <c r="O11" t="n">
-        <v>0.325665900165572</v>
+        <v>0.1758977890582818</v>
       </c>
       <c r="P11" t="n">
-        <v>1.603816069400194</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.509473947670772, 4.71710608647116]</t>
+          <t>[-0.6226580034141929, 5.566185182035969]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.3050143850435607</v>
+        <v>0.1146484650294295</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3050143850435607</v>
+        <v>0.1146484650294295</v>
       </c>
       <c r="T11" t="n">
-        <v>13.75474649324696</v>
+        <v>13.10903740708836</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.69761594164271, 18.8118770448512]</t>
+          <t>[7.3304195646374595, 18.887655249539264]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.845308025272274e-06</v>
+        <v>3.803715874384217e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>1.845308025272274e-06</v>
+        <v>3.803715874384217e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>18.14198198198226</v>
+        <v>14.60102102102122</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.071711711711806</v>
+        <v>2.746726726726765</v>
       </c>
       <c r="Z11" t="n">
-        <v>30.21225225225271</v>
+        <v>26.45531531531567</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4862177959417117</v>
+        <v>0.07191338858868879</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4862177959417117</v>
+        <v>0.07191338858868879</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.580796981425955</v>
+        <v>7.361025883856449</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-4.580080527296694, 11.741674490148604]</t>
+          <t>[-0.7785740985223732, 15.500625866235271]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3815337460384822</v>
+        <v>0.07519018355829599</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3815337460384822</v>
+        <v>0.07519018355829599</v>
       </c>
       <c r="P12" t="n">
-        <v>1.956026657190042</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.1824212590087715, 5.094474573388855]</t>
+          <t>[0.1823947686768843, 3.855448041342429]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.215855713844658</v>
+        <v>0.03192870084651522</v>
       </c>
       <c r="S12" t="n">
-        <v>0.215855713844658</v>
+        <v>0.03192870084651522</v>
       </c>
       <c r="T12" t="n">
-        <v>12.52728882758485</v>
+        <v>12.90873503223735</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.289831934049872, 16.764745721119823]</t>
+          <t>[8.468901406543612, 17.348568657931093]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.649632152047388e-07</v>
+        <v>5.106297109591651e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.649632152047388e-07</v>
+        <v>5.106297109591651e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>16.77645645645671</v>
+        <v>16.33579579579602</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.608648648648716</v>
+        <v>9.300320320320445</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.9442642642647</v>
+        <v>23.37127127127159</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.612912892321644</v>
+        <v>0.3962642393529212</v>
       </c>
       <c r="I13" t="n">
-        <v>0.612912892321644</v>
+        <v>0.3962642393529212</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.138139437847745</v>
+        <v>4.566007804513287</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.243484806384364, 11.519763682079853]</t>
+          <t>[-3.977602875387859, 13.109618484414433]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.4547205123653089</v>
+        <v>0.2874819231889256</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4547205123653089</v>
+        <v>0.2874819231889256</v>
       </c>
       <c r="P13" t="n">
-        <v>2.320816194543811</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.8176317216550011, 5.459264110742623]</t>
+          <t>[-1.2956318050840787, 4.9561061281856995]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1433612638625363</v>
+        <v>0.2444826577796433</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1433612638625363</v>
+        <v>0.2444826577796433</v>
       </c>
       <c r="T13" t="n">
-        <v>13.95123769197787</v>
+        <v>11.95590019596423</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.451422192004948, 18.45105319195079]</t>
+          <t>[7.219439568581137, 16.69236082334732]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.352452487779487e-07</v>
+        <v>6.949857148219607e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.352452487779487e-07</v>
+        <v>6.949857148219607e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>15.3621621621624</v>
+        <v>17.05861861861885</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.194354354354402</v>
+        <v>5.083853853853922</v>
       </c>
       <c r="Z13" t="n">
-        <v>27.52996996997039</v>
+        <v>29.03338338338377</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2991009469961293</v>
+        <v>0.5411232121008607</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2991009469961293</v>
+        <v>0.5411232121008607</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>4.318008385775695</v>
+        <v>3.569991751107207</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.262859668472, 11.89887644002339]</t>
+          <t>[-4.8763862504004605, 12.016369752614874]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.257354171851901</v>
+        <v>0.3991147881845394</v>
       </c>
       <c r="O14" t="n">
-        <v>0.257354171851901</v>
+        <v>0.3991147881845394</v>
       </c>
       <c r="P14" t="n">
-        <v>2.207605648468503</v>
+        <v>1.239026532046425</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, 5.308316715975546]</t>
+          <t>[-1.8868424345884645, 4.364895498681314]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1584917281789606</v>
+        <v>0.428862533655834</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1584917281789606</v>
+        <v>0.428862533655834</v>
       </c>
       <c r="T14" t="n">
-        <v>11.30085886530856</v>
+        <v>11.81662773770112</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.3848373316397335, 15.216880398977395]</t>
+          <t>[7.257192068611488, 16.37606340679075]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5.926362116603912e-07</v>
+        <v>4.408283154511139e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>5.926362116603912e-07</v>
+        <v>4.408283154511139e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>15.80108108108132</v>
+        <v>19.32346346346372</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.779579579579636</v>
+        <v>7.348698698698799</v>
       </c>
       <c r="Z14" t="n">
-        <v>27.82258258258301</v>
+        <v>31.29822822822865</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09158876748635814</v>
+        <v>0.3490703915710098</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09158876748635814</v>
+        <v>0.3490703915710098</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>6.703811626521615</v>
+        <v>4.733846473306594</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.6910613189867156, 14.098684572029946]</t>
+          <t>[-4.086434325020129, 13.554127271633316]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.07450776562312522</v>
+        <v>0.2854698421333193</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07450776562312522</v>
+        <v>0.2854698421333193</v>
       </c>
       <c r="P15" t="n">
-        <v>1.540921321580579</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.081763172165501, 3.000079470995657]</t>
+          <t>[-0.9245527929483481, 5.289448291629662]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0389396644488873</v>
+        <v>0.1640201743115917</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0389396644488873</v>
+        <v>0.1640201743115917</v>
       </c>
       <c r="T15" t="n">
-        <v>14.59707576069544</v>
+        <v>12.05537946472332</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[10.31693964192091, 18.87721187946996]</t>
+          <t>[7.46669855000529, 16.644060379441342]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.594533483029181e-08</v>
+        <v>3.465763093624119e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.594533483029181e-08</v>
+        <v>3.465763093624119e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>18.38582582582611</v>
+        <v>15.70934934934956</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.72864864864885</v>
+        <v>3.806866866866919</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.04300300300336</v>
+        <v>27.61183183183221</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_3_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_3_sawtooth_01_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3064541150169984</v>
+        <v>0.257453725324357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3064541150169984</v>
+        <v>0.257453725324357</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.794854564667076</v>
+        <v>5.413988307501397</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.5183936022065057, 13.108102731540658]</t>
+          <t>[-2.759885923622818, 13.587862538625611]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2514902790445142</v>
+        <v>0.1889008896394464</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2514902790445142</v>
+        <v>0.1889008896394464</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-1.597526594618233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.4780795544247356, 2.7736583788450426]</t>
+          <t>[-4.559869216922123, 1.3648160276856567]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.8214972736118136</v>
+        <v>0.2831915931315381</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8214972736118136</v>
+        <v>0.2831915931315381</v>
       </c>
       <c r="T2" t="n">
-        <v>11.66594461504863</v>
+        <v>12.85577040811461</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.317204321260746, 16.014684908836507]</t>
+          <t>[8.074769453179535, 17.63677136304969]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.378648665812833e-06</v>
+        <v>2.278412176481837e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>2.378648665812833e-06</v>
+        <v>2.278412176481837e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>1.456896896896932</v>
+        <v>6.608068068068228</v>
       </c>
       <c r="Y2" t="n">
-        <v>-11.47306306306334</v>
+        <v>-5.645475475475614</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.3868568568572</v>
+        <v>18.86161161161207</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2739869732706874</v>
+        <v>0.4061219784912472</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2739869732706874</v>
+        <v>0.4061219784912472</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.561121824203502</v>
+        <v>4.364275497288901</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.4346357812810595, 12.556879429688063]</t>
+          <t>[-3.9413504242317856, 12.669901418809587]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.256654998318695</v>
+        <v>0.2955526960376043</v>
       </c>
       <c r="O3" t="n">
-        <v>0.256654998318695</v>
+        <v>0.2955526960376043</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.94350068828989, 2.333395144107734]</t>
+          <t>[-4.446658670846815, 1.6541318676558872]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6079347573312086</v>
+        <v>0.3614871565844204</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6079347573312086</v>
+        <v>0.3614871565844204</v>
       </c>
       <c r="T3" t="n">
-        <v>11.72891420521284</v>
+        <v>13.35229603641512</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.6308027726797265, 15.827025637745958]</t>
+          <t>[8.559286030796788, 18.145306042033443]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.976820634552183e-07</v>
+        <v>1.176356423826519e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>6.976820634552183e-07</v>
+        <v>1.176356423826519e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.330050050050129</v>
+        <v>5.775555555555695</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.651941941942173</v>
+        <v>-6.842212212212377</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.31204204204243</v>
+        <v>18.39332332332377</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02914682919290212</v>
+        <v>0.03768635041142498</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02914682919290212</v>
+        <v>0.03768635041142498</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>9.985011143156427</v>
+        <v>8.586944957400339</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.4318360758569497, 19.538186210455905]</t>
+          <t>[0.6773563226208239, 16.496533592179855]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.04089300938520535</v>
+        <v>0.03401292499778785</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04089300938520535</v>
+        <v>0.03401292499778785</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.012631930227695</v>
+        <v>-1.710737140693541</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.3208426848756964, -0.704421175579693]</t>
+          <t>[-3.018947895341544, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.003346328941514098</v>
+        <v>0.01153342784309408</v>
       </c>
       <c r="S4" t="n">
-        <v>0.003346328941514098</v>
+        <v>0.01153342784309408</v>
       </c>
       <c r="T4" t="n">
-        <v>14.90159061763793</v>
+        <v>11.61957915149619</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.73175853562951, 20.07142269964636]</t>
+          <t>[6.873457855345777, 16.365700447646603]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.065859068371537e-07</v>
+        <v>1.157175399923993e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>6.065859068371537e-07</v>
+        <v>1.157175399923993e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>8.325125125125322</v>
+        <v>7.076356356356527</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.913793793793861</v>
+        <v>1.665025025025063</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.73645645645678</v>
+        <v>12.48768768768799</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4421755868177183</v>
+        <v>0.3516798065549059</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4421755868177183</v>
+        <v>0.3516798065549059</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.026454883750497</v>
+        <v>5.047082123261731</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.482605682794055, 14.535515450295048]</t>
+          <t>[-3.8141021799769756, 13.908266426500438]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2927148762421075</v>
+        <v>0.2573713896899175</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2927148762421075</v>
+        <v>0.2573713896899175</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.018947895341543</v>
+        <v>-2.893158399702312</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-6.151106336758394, 0.113210546075309]</t>
+          <t>[-6.019027366337201, 0.2327105669325773]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.05849927387699227</v>
+        <v>0.06883064019604457</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05849927387699227</v>
+        <v>0.06883064019604457</v>
       </c>
       <c r="T5" t="n">
-        <v>16.46864060885407</v>
+        <v>12.02330812997812</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[11.132866431031271, 21.80441478667687]</t>
+          <t>[7.310787358187056, 16.73582890176919]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.488972116714393e-07</v>
+        <v>5.788908691295447e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.488972116714393e-07</v>
+        <v>5.788908691295447e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>12.48768768768799</v>
+        <v>11.96736736736765</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.4682882882883028</v>
+        <v>-0.9625925925926175</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.44366366366427</v>
+        <v>24.89732732732792</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -931,63 +931,63 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01330535525417875</v>
+        <v>0.846435615999424</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01330535525417875</v>
+        <v>0.846435615999424</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>11.21573166963026</v>
+        <v>1.937126399198384</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[2.786553110680213, 19.6449102285803]</t>
+          <t>[-6.873666469382613, 10.74791926777938]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01025121893898451</v>
+        <v>0.6600191845226751</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01025121893898451</v>
+        <v>0.6600191845226751</v>
       </c>
       <c r="P6" t="n">
-        <v>3.113290017070967</v>
+        <v>-2.540947811912465</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.1069740519571187, 4.119605982184814]</t>
+          <t>[-5.6731062533293155, 0.5912106295043857]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.415944284044457e-07</v>
+        <v>0.109251202221708</v>
       </c>
       <c r="S6" t="n">
-        <v>1.415944284044457e-07</v>
+        <v>0.109251202221708</v>
       </c>
       <c r="T6" t="n">
-        <v>14.58529900922494</v>
+        <v>12.91031680686236</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.572299107475468, 19.598298910974407]</t>
+          <t>[8.304892563046563, 17.51574105067816]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.03613034608108e-07</v>
+        <v>1.043579745951817e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>5.03613034608108e-07</v>
+        <v>1.043579745951817e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>13.11207207207238</v>
+        <v>10.51047047047072</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.949509509509721</v>
+        <v>-2.445505505505565</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.27463463463505</v>
+        <v>23.46644644644701</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1017,63 +1017,63 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5477543247287908</v>
+        <v>0.009146613027688821</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5477543247287908</v>
+        <v>0.009146613027688821</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.329255128358434</v>
+        <v>9.648076677464683</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-6.296864444416708, 14.955374701133575]</t>
+          <t>[2.19287281706373, 17.103280537865636]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4162120663314171</v>
+        <v>0.01236022997980157</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4162120663314171</v>
+        <v>0.01236022997980157</v>
       </c>
       <c r="P7" t="n">
-        <v>2.647868883205812</v>
+        <v>2.974921571867813</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.4842895582110387, 5.7800273246226626]</t>
+          <t>[1.9937635058818115, 3.956079637853814]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.09552586427299792</v>
+        <v>2.166561794414434e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09552586427299792</v>
+        <v>2.166561794414434e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>16.46029286492948</v>
+        <v>12.23198745820757</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.858549023020998, 22.062036706837965]</t>
+          <t>[8.072781003046526, 16.391193913368607]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.127864443592699e-07</v>
+        <v>4.05694644545207e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>4.127864443592699e-07</v>
+        <v>4.05694644545207e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>15.03725725725762</v>
+        <v>13.68442442442475</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.081281281281329</v>
+        <v>9.625925925926154</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.9932332332339</v>
+        <v>17.74292292292334</v>
       </c>
     </row>
     <row r="8">
@@ -1103,63 +1103,63 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4892309729125598</v>
+        <v>0.3026512926831302</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4892309729125598</v>
+        <v>0.3026512926831302</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.145831155309981</v>
+        <v>4.472439276590226</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.478171930864882, 13.769834241484844]</t>
+          <t>[-3.535928043778945, 12.480806596959397]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3901969981087108</v>
+        <v>0.2666302552773119</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3901969981087108</v>
+        <v>0.2666302552773119</v>
       </c>
       <c r="P8" t="n">
-        <v>1.792500312859041</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, 4.91836927949393]</t>
+          <t>[-0.69184222601577, 5.585053606381854]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2541995405117288</v>
+        <v>0.1233945998360459</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2541995405117288</v>
+        <v>0.1233945998360459</v>
       </c>
       <c r="T8" t="n">
-        <v>13.17474453329475</v>
+        <v>12.13367342271946</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.050588019023696, 18.29890104756581]</t>
+          <t>[7.9797697486461105, 16.28757709679282]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.066353445881688e-06</v>
+        <v>4.652300342744553e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>5.066353445881688e-06</v>
+        <v>4.652300342744553e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.57543543543588</v>
+        <v>15.86976976977015</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.645475475475612</v>
+        <v>2.887777777777847</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.50539539539615</v>
+        <v>28.85176176176245</v>
       </c>
     </row>
     <row r="9">
@@ -1189,63 +1189,63 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7391345481616722</v>
+        <v>0.3000148347550478</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7391345481616722</v>
+        <v>0.3000148347550478</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>2.877431347799724</v>
+        <v>4.927954996485715</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-7.583548802707168, 13.338411498306616]</t>
+          <t>[-3.19937745656717, 13.0552874495386]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.5823175798635276</v>
+        <v>0.2283556292526021</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5823175798635276</v>
+        <v>0.2283556292526021</v>
       </c>
       <c r="P9" t="n">
-        <v>2.270500396288119</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8616580451287321, 5.40265883770497]</t>
+          <t>[-1.484316048542925, 4.767421884726853]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1512304904986119</v>
+        <v>0.2958335517724022</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1512304904986119</v>
+        <v>0.2958335517724022</v>
       </c>
       <c r="T9" t="n">
-        <v>15.30349701074203</v>
+        <v>13.94469117770976</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.876994647525525, 20.72999937395853]</t>
+          <t>[9.292015993127134, 18.597366362292384]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.298065724028248e-07</v>
+        <v>2.755737993354046e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>9.298065724028248e-07</v>
+        <v>2.755737993354046e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>16.59821821821862</v>
+        <v>19.19981981982028</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.642242242242327</v>
+        <v>6.269859859860011</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.55419419419491</v>
+        <v>32.12977977978055</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1328851661852331</v>
+        <v>0.161451174258456</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1328851661852331</v>
+        <v>0.161451174258456</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.13647690040034</v>
+        <v>5.709382565287774</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.7224861380455465, 13.995439938846227]</t>
+          <t>[-2.098132266199169, 13.516897396774716]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1228023636215121</v>
+        <v>0.1477524690589245</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1228023636215121</v>
+        <v>0.1477524690589245</v>
       </c>
       <c r="P10" t="n">
-        <v>1.767342413731195</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.006289474781961069, 3.5283953526804295]</t>
+          <t>[-1.2390265320464238, 5.025290350787277]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.04922134428305269</v>
+        <v>0.2298129355331149</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04922134428305269</v>
+        <v>0.2298129355331149</v>
       </c>
       <c r="T10" t="n">
-        <v>14.41440503242287</v>
+        <v>11.35355861206217</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.159426159439386, 18.669383905406363]</t>
+          <t>[7.181219116804982, 15.52589810731935]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.865228882458325e-08</v>
+        <v>1.829301196742961e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.865228882458325e-08</v>
+        <v>1.829301196742961e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>17.29955955955979</v>
+        <v>16.77575575575597</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.55321321321335</v>
+        <v>4.80680680680687</v>
       </c>
       <c r="Z10" t="n">
-        <v>24.04590590590623</v>
+        <v>28.74470470470508</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1986529681953104</v>
+        <v>0.482943384472749</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1986529681953104</v>
+        <v>0.482943384472749</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>7.429759131598314</v>
+        <v>4.016582145472403</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.4523063811305468, 18.311824644327174]</t>
+          <t>[-4.887941228649587, 12.921105519594391]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1758977890582818</v>
+        <v>0.3684510953176434</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1758977890582818</v>
+        <v>0.3684510953176434</v>
       </c>
       <c r="P11" t="n">
-        <v>2.471763589310888</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.6226580034141929, 5.566185182035969]</t>
+          <t>[-1.2893423303021176, 4.9749745525315845]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1146484650294295</v>
+        <v>0.2422361955062637</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1146484650294295</v>
+        <v>0.2422361955062637</v>
       </c>
       <c r="T11" t="n">
-        <v>13.10903740708836</v>
+        <v>11.2288433464576</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.3304195646374595, 18.887655249539264]</t>
+          <t>[6.5252927702628725, 15.932393922652324]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.803715874384217e-05</v>
+        <v>1.73673941405994e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.803715874384217e-05</v>
+        <v>1.73673941405994e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>14.60102102102122</v>
+        <v>16.96802802802825</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.746726726726765</v>
+        <v>4.999079079079145</v>
       </c>
       <c r="Z11" t="n">
-        <v>26.45531531531567</v>
+        <v>28.93697697697736</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07191338858868879</v>
+        <v>0.5696045723032799</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07191338858868879</v>
+        <v>0.5696045723032799</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>7.361025883856449</v>
+        <v>3.152132784614047</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.7785740985223732, 15.500625866235271]</t>
+          <t>[-4.386745560937557, 10.691011130165652]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07519018355829599</v>
+        <v>0.404168268569836</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07519018355829599</v>
+        <v>0.404168268569836</v>
       </c>
       <c r="P12" t="n">
-        <v>2.018921405009657</v>
+        <v>1.628973968528041</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.1823947686768843, 3.855448041342429]</t>
+          <t>[-1.46544762419704, 4.723395561253122]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.03192870084651522</v>
+        <v>0.2946796564561756</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03192870084651522</v>
+        <v>0.2946796564561756</v>
       </c>
       <c r="T12" t="n">
-        <v>12.90873503223735</v>
+        <v>12.25000967960665</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.468901406543612, 17.348568657931093]</t>
+          <t>[8.048989893724812, 16.451029465488485]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.106297109591651e-07</v>
+        <v>4.817233512088848e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>5.106297109591651e-07</v>
+        <v>4.817233512088848e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>16.33579579579602</v>
+        <v>17.78518518518542</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.300320320320445</v>
+        <v>5.960440440440518</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.37127127127159</v>
+        <v>29.60992992993031</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3962642393529212</v>
+        <v>0.2415315669527094</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3962642393529212</v>
+        <v>0.2415315669527094</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.566007804513287</v>
+        <v>4.596887709750932</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-3.977602875387859, 13.109618484414433]</t>
+          <t>[-2.1375096656935106, 11.331285085195374]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.2874819231889256</v>
+        <v>0.1759935656202976</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2874819231889256</v>
+        <v>0.1759935656202976</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83023716155081</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.2956318050840787, 4.9561061281856995]</t>
+          <t>[-1.2138686329185786, 4.597606065613891]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.2444826577796433</v>
+        <v>0.2470812217504763</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2444826577796433</v>
+        <v>0.2470812217504763</v>
       </c>
       <c r="T13" t="n">
-        <v>11.95590019596423</v>
+        <v>10.18739529695316</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.219439568581137, 16.69236082334732]</t>
+          <t>[6.366401921257287, 14.008388672649025]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>6.949857148219607e-06</v>
+        <v>2.660062877746228e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>6.949857148219607e-06</v>
+        <v>2.660062877746228e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>17.05861861861885</v>
+        <v>17.54484484484507</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.083853853853922</v>
+        <v>6.441121121121204</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.03338338338377</v>
+        <v>28.64856856856894</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5411232121008607</v>
+        <v>0.2662842951951694</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5411232121008607</v>
+        <v>0.2662842951951694</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.569991751107207</v>
+        <v>4.078189614446119</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.8763862504004605, 12.016369752614874]</t>
+          <t>[-2.1244646239378344, 10.280843852830072]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3991147881845394</v>
+        <v>0.192105367628618</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3991147881845394</v>
+        <v>0.192105367628618</v>
       </c>
       <c r="P14" t="n">
-        <v>1.239026532046425</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.8868424345884645, 4.364895498681314]</t>
+          <t>[-1.46544762419704, 4.698237662125276]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.428862533655834</v>
+        <v>0.2964345774595019</v>
       </c>
       <c r="S14" t="n">
-        <v>0.428862533655834</v>
+        <v>0.2964345774595019</v>
       </c>
       <c r="T14" t="n">
-        <v>11.81662773770112</v>
+        <v>9.708384541759891</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.257192068611488, 16.37606340679075]</t>
+          <t>[6.1897108578167455, 13.227058225703036]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.408283154511139e-06</v>
+        <v>1.411771430204212e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>4.408283154511139e-06</v>
+        <v>1.411771430204212e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>19.32346346346372</v>
+        <v>17.83325325325348</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.348698698698799</v>
+        <v>6.056576576576656</v>
       </c>
       <c r="Z14" t="n">
-        <v>31.29822822822865</v>
+        <v>29.60992992993031</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3490703915710098</v>
+        <v>0.06854035787728319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3490703915710098</v>
+        <v>0.06854035787728319</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.733846473306594</v>
+        <v>6.966546110286087</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-4.086434325020129, 13.554127271633316]</t>
+          <t>[-0.8516454811503316, 14.784737701722506]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2854698421333193</v>
+        <v>0.07941957718710735</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2854698421333193</v>
+        <v>0.07941957718710735</v>
       </c>
       <c r="P15" t="n">
-        <v>2.182447749340657</v>
+        <v>2.157289850212811</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.9245527929483481, 5.289448291629662]</t>
+          <t>[0.018868424345884982, 4.295711276079737]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1640201743115917</v>
+        <v>0.04809537263460895</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1640201743115917</v>
+        <v>0.04809537263460895</v>
       </c>
       <c r="T15" t="n">
-        <v>12.05537946472332</v>
+        <v>9.956877362988484</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.46669855000529, 16.644060379441342]</t>
+          <t>[5.801192748332841, 14.112561977644127]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.465763093624119e-06</v>
+        <v>1.639647922258014e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>3.465763093624119e-06</v>
+        <v>1.639647922258014e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>15.70934934934956</v>
+        <v>15.76632632632653</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.806866866866919</v>
+        <v>7.594754754754856</v>
       </c>
       <c r="Z15" t="n">
-        <v>27.61183183183221</v>
+        <v>23.93789789789821</v>
       </c>
     </row>
   </sheetData>
